--- a/SMAeLibrary/data/database.xlsx
+++ b/SMAeLibrary/data/database.xlsx
@@ -3,12 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="bukukeluar" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="bukumasuk" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="listbuku" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -49,9 +48,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,39 +414,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="27" customWidth="1" min="1" max="1"/>
-    <col width="39.7109375" customWidth="1" min="2" max="2"/>
-    <col width="21.85546875" customWidth="1" min="3" max="3"/>
-    <col width="9.42578125" customWidth="1" min="4" max="4"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>peminjam</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>nama_buku</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>tanggal</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id_buku</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>judul_buku</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>penerbit</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>jumlah</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>alasan</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>tanggal_keluar</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>jam</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Laskar Pelangi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bentang Pustaka</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Rusak</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20/12/2026</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>08.41</t>
         </is>
       </c>
     </row>
@@ -464,31 +507,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>id_buku</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>buku</t>
+          <t>judul_buku</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>tanggal</t>
+          <t>penerbit</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>jumlah</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tanggal_masuk</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
         <is>
           <t>jam</t>
         </is>
@@ -497,364 +550,484 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Buku Paten UTBK SNBT TPS 2026/2027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>PixelIndo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.34</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>Buku Wangsit Om Jero TPS UTBK SNBT 2026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>Wangsit Om Jero</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Informatika untuk SMA/MA Kelas XII</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kemendikbudristek</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>09.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The Art of Stoicism</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jendela Penerbit</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The Psychology of Money</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Morgan Housel</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The 48 Laws of Power</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Binarupa Aksara</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dan Hujan Pun Berhenti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Grasindo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22/01/2026</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hujan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Penerbit Sabak Grip</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22/01/2026</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Atomic Habits</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PT Gramedia Pustaka Utama</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24/01/2026</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>09.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Filosofi Teras</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Penerbit Buku Kompas</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28/01/2026</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sebuah Seni untuk Bersikap Bodo Amat</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Grasindo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29/01/2026</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>The 5AM Club</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>HarperCollins Publishers</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>02/02/2026</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>09.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Berani Tidak Disukai</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gramedia Pustaka Utama</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>02/02/2026</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sejarah untuk SMA/MA Kelas XII</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kemendikbudristek</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>03/02/2026</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Think and Grow Rich</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Gramedia Pustaka Utama</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>05/02/2026</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>13.05</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8.85546875" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="43" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>nama_buku</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>tahun</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Doksli Supersemar</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Soehar-</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tutorial Melawan Benfica</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Barca</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1001 Resep Makanan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Tanboy Kun</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cara Grinding Liga FCM yang Benar</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Baso</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tips Menanam Sawit</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>YTTA</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1001 Cara Terlambat Sekolah</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Erick &amp; Baso</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cara Menjadi Anak Sekolah yang Baik</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Rayya</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cara Menjadi Cewek Imut seperti Dinda</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Cidin</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1001 Resep Seblak</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Zulfa</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Tutorial Sixtuple dalam Semusim</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PSG</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Tutorial Ganti Pelatih</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pembelajaran Python untuk Pemula</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>NZF</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Tutorial Push Rank ML ke Glory</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Baso</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Kisah Pemancing Fish It yang Sukses</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Roblox</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Tutorial Judo untuk Pemula sampai Sabuk Hitam</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Made</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2024</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>